--- a/Federated Electric Market/result_excel/test_loss/frac/frac=0.05.xlsx
+++ b/Federated Electric Market/result_excel/test_loss/frac/frac=0.05.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.727730369857853</v>
+        <v>34.43493820586795</v>
       </c>
       <c r="C2" t="n">
-        <v>1.455100426609943</v>
+        <v>5.684213918912491</v>
       </c>
       <c r="D2" t="n">
-        <v>1.930733117201301</v>
+        <v>5.868129020894816</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.176592293466828</v>
+        <v>23.23383882453196</v>
       </c>
       <c r="C3" t="n">
-        <v>1.381930542158904</v>
+        <v>4.604859719564626</v>
       </c>
       <c r="D3" t="n">
-        <v>1.782299720436164</v>
+        <v>4.820149253345996</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.533969982721815</v>
+        <v>5.052638777160933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9684134211223413</v>
+        <v>1.914033140973905</v>
       </c>
       <c r="D4" t="n">
-        <v>1.238535418436556</v>
+        <v>2.24780754895986</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0508305116765</v>
+        <v>5.936534343022379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7922002833157133</v>
+        <v>2.280746894397193</v>
       </c>
       <c r="D5" t="n">
-        <v>1.025100244696342</v>
+        <v>2.436500429514097</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6187466048632392</v>
+        <v>3.866944771775202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6014694235948957</v>
+        <v>1.809561582738603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7866044780340621</v>
+        <v>1.966454874075477</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9462315092390969</v>
+        <v>6.988726354126223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7214335783200443</v>
+        <v>2.473066303149746</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9727443185334453</v>
+        <v>2.64361993375111</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.362653036251809</v>
+        <v>6.920896467617705</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8267791423911705</v>
+        <v>2.401747553352714</v>
       </c>
       <c r="D8" t="n">
-        <v>1.167327304680144</v>
+        <v>2.630759675002205</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.016554895180739</v>
+        <v>4.865408303418426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8098610435055728</v>
+        <v>1.968281336297809</v>
       </c>
       <c r="D9" t="n">
-        <v>1.008243470189983</v>
+        <v>2.205767055565575</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9267871417641261</v>
+        <v>4.680680191321684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7760589894452049</v>
+        <v>1.942378261977927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9626978455175467</v>
+        <v>2.163487968841446</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6899233004303008</v>
+        <v>1.952965366089941</v>
       </c>
       <c r="C11" t="n">
-        <v>0.644758828870449</v>
+        <v>1.160666796403512</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8306162172931015</v>
+        <v>1.397485372406431</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9733995323532216</v>
+        <v>4.488378287879699</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7305995165524777</v>
+        <v>1.925016377293321</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9866101217569286</v>
+        <v>2.118579308848196</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7300298427854297</v>
+        <v>1.243735500858877</v>
       </c>
       <c r="C13" t="n">
-        <v>0.679347278342172</v>
+        <v>0.887264804820125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8544178385224818</v>
+        <v>1.115228900656218</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8623892995122887</v>
+        <v>3.799570598998592</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7188809799723116</v>
+        <v>1.690396709562049</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9286491799987165</v>
+        <v>1.94924872681723</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8579447989437274</v>
+        <v>0.7450815851961046</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7536131017793977</v>
+        <v>0.7193093362881811</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9262530965906282</v>
+        <v>0.8631810848229383</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7971012513316867</v>
+        <v>2.441590603746592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6964688435335473</v>
+        <v>1.324038045840836</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8928052706675106</v>
+        <v>1.562558992085288</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4486441021710534</v>
+        <v>2.087317699772005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5288280070328444</v>
+        <v>1.296736776073555</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6698090042475193</v>
+        <v>1.444755238707237</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.235580338404699</v>
+        <v>8.271732265443765</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9004436437478226</v>
+        <v>2.738470376490206</v>
       </c>
       <c r="D18" t="n">
-        <v>1.111566614470181</v>
+        <v>2.876061936997144</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9094895990069709</v>
+        <v>3.842675908347161</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7219218650152881</v>
+        <v>1.697636136278793</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9536716410835393</v>
+        <v>1.960274447200483</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6270563956743198</v>
+        <v>3.636242471638758</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6083063820144043</v>
+        <v>1.747264559321443</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7918689258168424</v>
+        <v>1.906893408567652</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6694618446869613</v>
+        <v>4.101313431028769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6434843100797887</v>
+        <v>1.839699855873981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8182064804723569</v>
+        <v>2.025169975836293</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7521282719977936</v>
+        <v>4.216926417558617</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6808448938250464</v>
+        <v>1.870241653970486</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8672532917192034</v>
+        <v>2.053515623889581</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3653936273529043</v>
+        <v>1.258432678772239</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4603170317440283</v>
+        <v>0.9491300709150365</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6044779792125634</v>
+        <v>1.121798858428836</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7369448558103439</v>
+        <v>2.435489720659217</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6723902281401712</v>
+        <v>1.286722983090198</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8584549235751077</v>
+        <v>1.560605562164642</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6080212586311531</v>
+        <v>0.4697476314120166</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6132500701773601</v>
+        <v>0.5387532941045201</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7797571792751594</v>
+        <v>0.6853813766159806</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.007598408338867</v>
+        <v>2.486978764170344</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7864654089850354</v>
+        <v>1.261224888764058</v>
       </c>
       <c r="D26" t="n">
-        <v>1.003792014482516</v>
+        <v>1.577015778034685</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.400501238423551</v>
+        <v>5.571421864865966</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9517558426390273</v>
+        <v>2.113394943980065</v>
       </c>
       <c r="D27" t="n">
-        <v>1.183427749557847</v>
+        <v>2.360385956759183</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3411069125058398</v>
+        <v>0.9256774452610439</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4623936365749608</v>
+        <v>0.8082924392270238</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5840435878475508</v>
+        <v>0.9621213256450789</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.691064601754605</v>
+        <v>3.585592610748844</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6415867118047325</v>
+        <v>1.666123163090306</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8313029542559108</v>
+        <v>1.89356610942128</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7520425375104717</v>
+        <v>3.984791967284958</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6596223148689492</v>
+        <v>1.766756298179103</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8672038615633995</v>
+        <v>1.996194371118443</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.060162464018637</v>
+        <v>6.024608485678905</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7864830402736781</v>
+        <v>2.247112520084403</v>
       </c>
       <c r="D31" t="n">
-        <v>1.029641910577963</v>
+        <v>2.454507788881287</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7444540226970128</v>
+        <v>2.341261472101109</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6756097131279764</v>
+        <v>1.281693535539031</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8628174909544966</v>
+        <v>1.530118123577755</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7221334162357061</v>
+        <v>1.028221049528354</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6517932119285006</v>
+        <v>0.8205255386189636</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8497843351319828</v>
+        <v>1.014012351763209</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5316536036331277</v>
+        <v>2.262254176944813</v>
       </c>
       <c r="C34" t="n">
-        <v>0.51809197133434</v>
+        <v>1.405880507289363</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7291458040975946</v>
+        <v>1.504079179080946</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.778814918675633</v>
+        <v>16.55426691594566</v>
       </c>
       <c r="C35" t="n">
-        <v>1.391380582905859</v>
+        <v>3.942725459455511</v>
       </c>
       <c r="D35" t="n">
-        <v>1.666977779898591</v>
+        <v>4.068693514624278</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.261789871260826</v>
+        <v>12.58134489573776</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9103467498330887</v>
+        <v>3.404496459765519</v>
       </c>
       <c r="D36" t="n">
-        <v>1.123294205122071</v>
+        <v>3.547019156381561</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6532769367025025</v>
+        <v>1.297424915323209</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5944695094774043</v>
+        <v>0.9452700861207628</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8082554897447357</v>
+        <v>1.139045615997537</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5703609259904409</v>
+        <v>2.302753384698466</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5544098683557673</v>
+        <v>1.314899028912458</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7552224347769608</v>
+        <v>1.517482581349277</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5950385857584372</v>
+        <v>2.365609683275095</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5786327703422582</v>
+        <v>1.346462529809044</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7713874420538859</v>
+        <v>1.538053862280218</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.438096975632406</v>
+        <v>13.05095749297603</v>
       </c>
       <c r="C40" t="n">
-        <v>0.943986595339231</v>
+        <v>3.430497655761668</v>
       </c>
       <c r="D40" t="n">
-        <v>1.199206811034863</v>
+        <v>3.612610896979639</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4280798490313514</v>
+        <v>1.898006822119885</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5165582216146504</v>
+        <v>1.220100710818725</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6542781129086861</v>
+        <v>1.377681683887786</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5614446459536866</v>
+        <v>2.313279123972382</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5746628798117396</v>
+        <v>1.31790425125532</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7492961003192841</v>
+        <v>1.520946785384808</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.7198867661814</v>
+        <v>6.259387517641732</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9195315745301608</v>
+        <v>2.248184979892815</v>
       </c>
       <c r="D43" t="n">
-        <v>1.311444534161243</v>
+        <v>2.501876799053409</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5142116827234829</v>
+        <v>3.029934023064321</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5644088784955461</v>
+        <v>1.606322820344125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7170855477022828</v>
+        <v>1.740670567070151</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5337364574167732</v>
+        <v>2.816913002618971</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5757974908793818</v>
+        <v>1.569473078792732</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7305726913981752</v>
+        <v>1.67836617060133</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4786563383019914</v>
+        <v>1.753202469460121</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5434414193099127</v>
+        <v>1.122626600528288</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6918499391500958</v>
+        <v>1.324085521958503</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.555145180107192</v>
+        <v>4.526186894453805</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5920597547076568</v>
+        <v>1.992045830403442</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7450806534243068</v>
+        <v>2.12748370016172</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2703694945023329</v>
+        <v>0.6838553740284472</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3853453930197611</v>
+        <v>0.6847791289922274</v>
       </c>
       <c r="D48" t="n">
-        <v>0.519970666963371</v>
+        <v>0.8269554849134548</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4954997494190176</v>
+        <v>2.045851103227354</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5472613433412312</v>
+        <v>1.264473114308373</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7039174308248216</v>
+        <v>1.430332514916498</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5015283690450193</v>
+        <v>2.089609054652051</v>
       </c>
       <c r="C50" t="n">
-        <v>0.542935952854573</v>
+        <v>1.246384674596359</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7081866766926778</v>
+        <v>1.445548011880633</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3385938093486332</v>
+        <v>1.767881037185227</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4574614013306725</v>
+        <v>1.178437893645072</v>
       </c>
       <c r="D51" t="n">
-        <v>0.581888141611971</v>
+        <v>1.329616876090713</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4602582587398927</v>
+        <v>1.874672613787618</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5214483343066766</v>
+        <v>1.19500931660315</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6784233624661614</v>
+        <v>1.369186844001803</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3945821031064058</v>
+        <v>1.124683066178608</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4895628049602581</v>
+        <v>0.8635199151075749</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6281577056013926</v>
+        <v>1.060510757219656</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2484628585142692</v>
+        <v>1.369497445432098</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3920287440407844</v>
+        <v>1.064257312654336</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4984604884183592</v>
+        <v>1.170255290708868</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6106412780135693</v>
+        <v>3.290610029398827</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6151743923161663</v>
+        <v>1.669132220639974</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7814353959308276</v>
+        <v>1.814003866974607</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4509052332697144</v>
+        <v>2.398892440897738</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5283243673691654</v>
+        <v>1.402706321581631</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6714947753108094</v>
+        <v>1.548835834069492</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2626829921749271</v>
+        <v>2.067807162120985</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4015202789069008</v>
+        <v>1.334193872815837</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5125260892627097</v>
+        <v>1.437987191222851</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4585922615904561</v>
+        <v>1.779265400003467</v>
       </c>
       <c r="C58" t="n">
-        <v>0.540682394119284</v>
+        <v>1.163196758234113</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6771944045770432</v>
+        <v>1.333891075014548</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.596493649899914</v>
+        <v>11.2152372342885</v>
       </c>
       <c r="C59" t="n">
-        <v>1.040906412036047</v>
+        <v>3.235743603584224</v>
       </c>
       <c r="D59" t="n">
-        <v>1.263524297312843</v>
+        <v>3.348915829681078</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6880587664240185</v>
+        <v>1.90097163533977</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6477268671848435</v>
+        <v>1.137214875129672</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8294930779843908</v>
+        <v>1.378757279342441</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5353046723349192</v>
+        <v>2.695650534690178</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5475707634631057</v>
+        <v>1.49751366661457</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7316451819939219</v>
+        <v>1.641843638928561</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8464593717269566</v>
+        <v>4.29297108912246</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7057653841926903</v>
+        <v>1.777412427434634</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9200322666770751</v>
+        <v>2.071948621255474</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4959962889481667</v>
+        <v>1.181635479413942</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5287393728765147</v>
+        <v>0.9030570575881133</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7042700397916745</v>
+        <v>1.087030578877127</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5026005553150008</v>
+        <v>2.576469742196433</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5343821178088077</v>
+        <v>1.488109725669035</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7089432666405689</v>
+        <v>1.605138542991362</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7407342286690256</v>
+        <v>2.996479787919671</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6535037290939396</v>
+        <v>1.509564383248428</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8606591826437603</v>
+        <v>1.731034311595143</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4411798971162996</v>
+        <v>4.263278861300628</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4972160265202695</v>
+        <v>1.964016231899334</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6642137435466836</v>
+        <v>2.064770898017654</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.641650891108294</v>
+        <v>3.335396275780065</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5936278975718896</v>
+        <v>1.684958921430126</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8010311424085171</v>
+        <v>1.826306731023041</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.705807001729153</v>
+        <v>8.162715214189667</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9781780870901936</v>
+        <v>2.634399736758506</v>
       </c>
       <c r="D68" t="n">
-        <v>1.306065466096226</v>
+        <v>2.857046589432813</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.197875386824974</v>
+        <v>7.166761448739027</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8230398787512504</v>
+        <v>2.540078845998003</v>
       </c>
       <c r="D69" t="n">
-        <v>1.094474936590589</v>
+        <v>2.677080769931873</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.554886611872515</v>
+        <v>7.887135892268704</v>
       </c>
       <c r="C70" t="n">
-        <v>0.967978896954661</v>
+        <v>2.663107558912772</v>
       </c>
       <c r="D70" t="n">
-        <v>1.246950926008123</v>
+        <v>2.808404510085523</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.767542319785175</v>
+        <v>3.085385628765228</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6906674575340459</v>
+        <v>1.579641607350796</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8760949262409724</v>
+        <v>1.756526580716964</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3514517147815807</v>
+        <v>2.358019236605849</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4701491565388236</v>
+        <v>1.460587442983251</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5928336316215373</v>
+        <v>1.535584330672155</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6476896670112233</v>
+        <v>4.806687543936042</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6057528774139869</v>
+        <v>2.093294164946094</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8047916916887397</v>
+        <v>2.192415914906668</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7128465926061645</v>
+        <v>4.504365425952423</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6694789827800836</v>
+        <v>1.96986851098816</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8443024295867947</v>
+        <v>2.1223490349027</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6481761353351091</v>
+        <v>3.749688567259459</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6263810456461378</v>
+        <v>1.748130769847479</v>
       </c>
       <c r="D75" t="n">
-        <v>0.805093867406223</v>
+        <v>1.93641125984628</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4661366662413716</v>
+        <v>1.421746604373099</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5483798526628256</v>
+        <v>0.999022796108292</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6827420202692753</v>
+        <v>1.192370162480217</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.345587926156815</v>
+        <v>1.70938666688151</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4639334556725745</v>
+        <v>1.130568678284405</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5878672691661061</v>
+        <v>1.307435148250769</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7861164674185928</v>
+        <v>3.256791606838865</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6935074431801062</v>
+        <v>1.657572088651018</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8866320924817648</v>
+        <v>1.804658307502798</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8266899199225293</v>
+        <v>2.408568739546489</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7278855354051141</v>
+        <v>1.267642569622624</v>
       </c>
       <c r="D79" t="n">
-        <v>0.909224900628293</v>
+        <v>1.551956423211196</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3069878978782026</v>
+        <v>1.675217379380696</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4208301822724834</v>
+        <v>1.15750181466846</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5540648859819602</v>
+        <v>1.294301888811376</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7497009116251339</v>
+        <v>2.903654434624251</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6376207736999951</v>
+        <v>1.494918912924459</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8658527078118621</v>
+        <v>1.704011277728012</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5711312652839023</v>
+        <v>1.886237308991309</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5790716738053634</v>
+        <v>1.119745910397044</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7557322709027995</v>
+        <v>1.373403549213161</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5696670849123007</v>
+        <v>1.259374730790086</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6060692189378933</v>
+        <v>0.9045959086394295</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7547629329215239</v>
+        <v>1.122218664427787</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6024444180947403</v>
+        <v>1.73479129555772</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6364610610342689</v>
+        <v>1.123157377086375</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7761729305346459</v>
+        <v>1.317114761726449</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5194291840597061</v>
+        <v>2.902868386231069</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5743564261944573</v>
+        <v>1.514776682868423</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7207143567736847</v>
+        <v>1.703780615640133</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.055111328573131</v>
+        <v>5.777033755296056</v>
       </c>
       <c r="C86" t="n">
-        <v>0.734969638854286</v>
+        <v>2.255427979206545</v>
       </c>
       <c r="D86" t="n">
-        <v>1.027186121680551</v>
+        <v>2.403546079295352</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5104490913039905</v>
+        <v>1.605121537408971</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5501370347167509</v>
+        <v>1.082202729004976</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7144572004703924</v>
+        <v>1.26693391201316</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.494633546601054</v>
+        <v>0.8213783392423308</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5775027910503877</v>
+        <v>0.7038596453594252</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7033018886659228</v>
+        <v>0.9062992547951978</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3972274566737461</v>
+        <v>1.988650231368013</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5087629024646955</v>
+        <v>1.263284837806073</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6302598326672469</v>
+        <v>1.410195104007957</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.407138958898361</v>
+        <v>2.92137595555003</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4997372859120937</v>
+        <v>1.590392468504311</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6380744148595531</v>
+        <v>1.709203310185781</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79000825700408</v>
+        <v>10.3836693955639</v>
       </c>
       <c r="C91" t="n">
-        <v>1.143345471513176</v>
+        <v>3.137967578773953</v>
       </c>
       <c r="D91" t="n">
-        <v>1.337911901809712</v>
+        <v>3.222370151854672</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3196740699882254</v>
+        <v>0.6161086917075396</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4313395608521095</v>
+        <v>0.6289778593625808</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5653972674042786</v>
+        <v>0.7849259147891218</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3015408255864394</v>
+        <v>0.5642073809029431</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4373405471719857</v>
+        <v>0.6009839430904137</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5491273309410482</v>
+        <v>0.7511373914956857</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1804406402261104</v>
+        <v>2.225765305314037</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3263743498116765</v>
+        <v>1.423251223224242</v>
       </c>
       <c r="D94" t="n">
-        <v>0.424783050775464</v>
+        <v>1.491899897886596</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3208863838175276</v>
+        <v>3.242242271435385</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4741068141960629</v>
+        <v>1.725342264746911</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5664683431733212</v>
+        <v>1.800622745450969</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2831250133436514</v>
+        <v>0.2678826274921676</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4223572803996735</v>
+        <v>0.4115516155284232</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5320949288836075</v>
+        <v>0.517573789417671</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4411074669275925</v>
+        <v>0.9272179086341116</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5335284213514006</v>
+        <v>0.7845290822370071</v>
       </c>
       <c r="D97" t="n">
-        <v>0.664159218055123</v>
+        <v>0.9629215485355552</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2226942712015626</v>
+        <v>1.228134763227664</v>
       </c>
       <c r="C98" t="n">
-        <v>0.371488421018657</v>
+        <v>1.01174836613522</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4719049387340236</v>
+        <v>1.108212417918002</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8175041388430665</v>
+        <v>3.579442061029452</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7278857432062068</v>
+        <v>1.809013453866592</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9041593547838049</v>
+        <v>1.891941347143048</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2645636002382546</v>
+        <v>0.7500669718732742</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3899666263457455</v>
+        <v>0.7230946115659869</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5143574634806563</v>
+        <v>0.8660640691503569</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2883291664302937</v>
+        <v>2.104928191216301</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4278508318959291</v>
+        <v>1.389352442067259</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5369629097342699</v>
+        <v>1.450837065702521</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4387985499054621</v>
+        <v>1.467727448766754</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5079844890890254</v>
+        <v>1.062881239388177</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6624187119228004</v>
+        <v>1.211498018474134</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3466894731029337</v>
+        <v>0.5237772741020539</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4921702245757029</v>
+        <v>0.5514480382490564</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5888034248396774</v>
+        <v>0.7237245844256321</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1951663367844507</v>
+        <v>0.4559373425780796</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3583519717468754</v>
+        <v>0.5644858316470094</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4417763424906892</v>
+        <v>0.6752313252346039</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3334414349162282</v>
+        <v>0.3647757518273779</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4712661520201371</v>
+        <v>0.4551255461044328</v>
       </c>
       <c r="D105" t="n">
-        <v>0.577443880317584</v>
+        <v>0.6039666810573062</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9127611923905662</v>
+        <v>2.297571651416316</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7718905474780937</v>
+        <v>1.257684498531552</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9553853632909425</v>
+        <v>1.51577427455948</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5729092111618559</v>
+        <v>6.208758632231475</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6382658664291359</v>
+        <v>2.449049062897672</v>
       </c>
       <c r="D107" t="n">
-        <v>0.756907663563962</v>
+        <v>2.491738074563913</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2683514926932121</v>
+        <v>2.131442784797736</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4288054262324675</v>
+        <v>1.415059247263215</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5180265366689356</v>
+        <v>1.459946158184519</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4799258903366612</v>
+        <v>2.608362827518996</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5521682949981087</v>
+        <v>1.527850607308906</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6927668369203748</v>
+        <v>1.615042670494806</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3007243391749518</v>
+        <v>1.647366538438258</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4264677979723084</v>
+        <v>1.209514413088459</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5483833870340639</v>
+        <v>1.283497775003236</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3086532387388938</v>
+        <v>1.549051497087765</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4431146228529368</v>
+        <v>1.133406788738956</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5555656925502994</v>
+        <v>1.244608973568713</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5069562363768928</v>
+        <v>1.386567504403803</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5737402035122774</v>
+        <v>0.9759091582152933</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7120085929094485</v>
+        <v>1.177526010075278</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.418509826711215</v>
+        <v>9.034560629877214</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9286879858882791</v>
+        <v>2.791526214757065</v>
       </c>
       <c r="D113" t="n">
-        <v>1.191012101832393</v>
+        <v>3.005754585769972</v>
       </c>
     </row>
   </sheetData>
